--- a/biology/Botanique/Gossypium_herbaceum/Gossypium_herbaceum.xlsx
+++ b/biology/Botanique/Gossypium_herbaceum/Gossypium_herbaceum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gossypium herbaceum, le Cotonnier herbacé, est une espèce de cotonnier « véritable » de la famille des Malvaceae. Elle affectionne les régions chaudes et ensoleillées. Le cotonnier herbacé est natif de l'Afrique, la sous espèce Gossypium herbaceum ssp. africanum étant présente dans tout le sud du continent; l'espèce-sœur phylogénétiquement très proche Gossypium arboreum, le cotonnier en arbre, est originaire d'Asie, vallée de l'Indus au Pakistan et nord-ouest de l'Inde.
 Il produit des fleurs couleur d'ivoire laissant ensuite la place à des capsules de couleur verte, puis brune.
